--- a/Distribuição de tarefas-02.xlsx
+++ b/Distribuição de tarefas-02.xlsx
@@ -117,9 +117,6 @@
     <t>Tamanho da rede</t>
   </si>
   <si>
-    <t>Segestão de amigos</t>
-  </si>
-  <si>
     <t>Tag cloud própria de Utilizadores</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Labirinto</t>
+  </si>
+  <si>
+    <t>Sugestão de amigos</t>
   </si>
 </sst>
 </file>
@@ -383,6 +383,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -399,39 +432,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,26 +753,26 @@
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -780,233 +780,233 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1014,25 +1014,25 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1040,37 +1040,37 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1078,238 +1078,238 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1317,37 +1317,37 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="13"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1355,27 +1355,27 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1383,153 +1383,156 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="3" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="B47:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B3:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B43"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C43"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C3:C12"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D18:I18"/>
     <mergeCell ref="D16:I16"/>
@@ -1540,15 +1543,12 @@
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B3:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B43"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C43"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="B47:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
